--- a/excel table.xlsx
+++ b/excel table.xlsx
@@ -1,20 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\Documents\SourceTree\fire_prevention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcardenas/Documents/Master/embedded_systems/fire_prevention/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF35D051-59A4-B540-9901-89889DC5C27F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$64:$G$84</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$63</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$L$64:$L$84</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$G$64:$G$84</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$H$63</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$H$64:$H$84</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$I$63</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$I$64:$I$84</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$J$63</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$J$64:$J$84</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$K$63</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$K$64:$K$84</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$64:$H$84</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$L$63</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$L$64:$L$84</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$I$63</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$I$64:$I$84</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$J$63</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$J$64:$J$84</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$K$63</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$K$64:$K$84</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$63</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Async edge</t>
   </si>
@@ -53,12 +78,6 @@
     <t>*NP = not possible</t>
   </si>
   <si>
-    <t>temp sensor( 1.8 km2)</t>
-  </si>
-  <si>
-    <t>Laser temp sensor( 2.6 km2)</t>
-  </si>
-  <si>
     <t>Laser_sensors</t>
   </si>
   <si>
@@ -81,13 +100,123 @@
   </si>
   <si>
     <t>total_price_main</t>
+  </si>
+  <si>
+    <t>Temp Sensor (1.8 km2)</t>
+  </si>
+  <si>
+    <t>Laser Temp Sensor (2.6 km2)</t>
+  </si>
+  <si>
+    <t>0.0400000000000000</t>
+  </si>
+  <si>
+    <t>0.398000000000000</t>
+  </si>
+  <si>
+    <t>0.858000000000000</t>
+  </si>
+  <si>
+    <t>0.988000000000000</t>
+  </si>
+  <si>
+    <t>0.440000000000000</t>
+  </si>
+  <si>
+    <t>0.708000000000000</t>
+  </si>
+  <si>
+    <t>0.948000000000000</t>
+  </si>
+  <si>
+    <t>0.996000000000000</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>laser</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>0.980000000000000</t>
+  </si>
+  <si>
+    <t>0.992000000000000</t>
+  </si>
+  <si>
+    <t>0.0660000000000000</t>
+  </si>
+  <si>
+    <t>0.260000000000000</t>
+  </si>
+  <si>
+    <t>0.410000000000000</t>
+  </si>
+  <si>
+    <t>0.514000000000000</t>
+  </si>
+  <si>
+    <t>0.596000000000000</t>
+  </si>
+  <si>
+    <t>0.654000000000000</t>
+  </si>
+  <si>
+    <t>0.678000000000000</t>
+  </si>
+  <si>
+    <t>0.720000000000000</t>
+  </si>
+  <si>
+    <t>0.762000000000000</t>
+  </si>
+  <si>
+    <t>0.804000000000000</t>
+  </si>
+  <si>
+    <t>0.876000000000000</t>
+  </si>
+  <si>
+    <t>0.904000000000000</t>
+  </si>
+  <si>
+    <t>0.924000000000000</t>
+  </si>
+  <si>
+    <t>0.960000000000000</t>
+  </si>
+  <si>
+    <t>0.990000000000000</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>main sync</t>
+  </si>
+  <si>
+    <t>laser sync</t>
+  </si>
+  <si>
+    <t>main async</t>
+  </si>
+  <si>
+    <t>laser async</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +235,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,18 +291,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,30 +331,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Accent5" xfId="4" builtinId="45"/>
     <cellStyle name="Accent6" xfId="5" builtinId="49"/>
+    <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -237,26 +378,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="da-DK"/>
-              <a:t>Price of solutions(dkk)</a:t>
+              <a:rPr lang="da-DK" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>Price of Solutions (DKK)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -270,14 +412,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -302,22 +441,109 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>temp sensor( 1.8 km2)</c:v>
+                  <c:v>Temp Sensor (1.8 km2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BDF7-7640-9F46-D346690FD887}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-BDF7-7640-9F46-D346690FD887}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -326,20 +552,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -347,7 +570,7 @@
                 <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -357,15 +580,14 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -431,17 +653,22 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Laser temp sensor( 2.6 km2)</c:v>
+                  <c:v>Laser Temp Sensor (2.6 km2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -455,20 +682,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -476,7 +700,7 @@
                 <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -486,15 +710,14 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -549,7 +772,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -557,8 +780,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
+        <c:gapWidth val="24"/>
         <c:axId val="197674592"/>
         <c:axId val="197676888"/>
       </c:barChart>
@@ -569,32 +791,15 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="34925" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -605,14 +810,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -634,6 +836,15 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -643,7 +854,9 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -651,8 +864,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -666,14 +878,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -688,7 +897,898 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>Systems</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t> Average Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Main Sync</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$64:$J$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$64:$K$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B534-4D4F-B0ED-2D0B9BBF4B36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Main Async</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$64:$G$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$64:$H$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B534-4D4F-B0ED-2D0B9BBF4B36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Laser Sync</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$64:$J$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$64:$L$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B534-4D4F-B0ED-2D0B9BBF4B36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Laser Async</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$64:$G$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$64:$I$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B534-4D4F-B0ED-2D0B9BBF4B36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1366695056"/>
+        <c:axId val="1314011728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1366695056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+                  </a:rPr>
+                  <a:t>Time Since Fire Starts (Minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1314011728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1314011728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+                  </a:rPr>
+                  <a:t>Fire Detection Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366695056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Eurostile" panose="020B0504020202050204" pitchFamily="34" charset="77"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -759,44 +1859,568 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -806,6 +2430,92 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -817,7 +2527,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -825,14 +2535,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -864,45 +2571,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -914,26 +2611,22 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -963,13 +2656,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -979,7 +2674,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -988,13 +2683,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1003,16 +2699,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1021,10 +2718,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1040,15 +2737,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1067,16 +2770,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1085,16 +2789,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1103,16 +2808,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1133,7 +2839,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1141,7 +2847,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1154,17 +2860,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1172,10 +2867,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1196,7 +2891,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1205,14 +2900,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1226,26 +2921,27 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1262,9 +2958,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1277,8 +2973,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1287,20 +2989,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1310,6 +3018,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56536218-18C8-1845-AF5A-90653CE7E516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1580,300 +3324,300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="I39" workbookViewId="0">
+      <selection activeCell="AC60" sqref="AC60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3000</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>70</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>35</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>6000</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>25</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>15</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>40</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>9000</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>15</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>25</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>12000</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>11</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>15</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <v>15</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>16000</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>13</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <v>10</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="8">
         <v>15</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <f>14*14</f>
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <f>17*17</f>
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <f>300+384</f>
         <v>684</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <f>8.27+300</f>
         <v>308.27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <f>B14*B12</f>
         <v>134064</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <f>B13*B15</f>
         <v>89090.03</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3000</v>
       </c>
@@ -1881,7 +3625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>6000</v>
       </c>
@@ -1890,7 +3634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>9000</v>
       </c>
@@ -1899,7 +3643,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>12000</v>
       </c>
@@ -1908,7 +3652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>16000</v>
       </c>
@@ -1917,7 +3661,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1925,41 +3669,538 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="13">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="9">
         <f>(B22*B13)+B17</f>
         <v>161340.03</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="9">
         <f>(B22*B13)+B17</f>
         <v>161340.03</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="9">
         <f>B17+(B20*B13)</f>
         <v>132440.03</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="9">
         <f>B17+(B19*B13)</f>
         <v>117990.03</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
         <f>B16+(B22*B12)</f>
         <v>183064</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="9">
         <f>B16+(B21*B12)</f>
         <v>173264</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="9">
         <f>B16+(B19*B12)</f>
         <v>153664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D56" s="14"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" t="s">
+        <v>51</v>
+      </c>
+      <c r="J63" t="s">
+        <v>47</v>
+      </c>
+      <c r="K63" t="s">
+        <v>48</v>
+      </c>
+      <c r="L63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0.04</v>
+      </c>
+      <c r="I64">
+        <v>0.04</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0.04</v>
+      </c>
+      <c r="L64">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0.04</v>
+      </c>
+      <c r="I65">
+        <v>0.04</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="L65">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I66">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="L66">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>0.18</v>
+      </c>
+      <c r="I67">
+        <v>0.26</v>
+      </c>
+      <c r="J67">
+        <v>15</v>
+      </c>
+      <c r="K67">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L67">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <v>0.3</v>
+      </c>
+      <c r="I68">
+        <v>0.41</v>
+      </c>
+      <c r="J68">
+        <v>20</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="I69">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70">
+        <v>6</v>
+      </c>
+      <c r="H70">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I70">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71">
+        <v>7</v>
+      </c>
+      <c r="H71">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="I71">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72">
+        <v>8</v>
+      </c>
+      <c r="H72">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="I72">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73">
+        <v>9</v>
+      </c>
+      <c r="H73">
+        <v>0.87</v>
+      </c>
+      <c r="I73">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>11</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="I74">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75">
+        <v>11</v>
+      </c>
+      <c r="H75">
+        <v>0.94</v>
+      </c>
+      <c r="I75">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>13</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76">
+        <v>12</v>
+      </c>
+      <c r="H76">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I76">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>14</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77">
+        <v>13</v>
+      </c>
+      <c r="H77">
+        <v>0.97</v>
+      </c>
+      <c r="I77">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G78">
+        <v>14</v>
+      </c>
+      <c r="H78">
+        <v>0.98</v>
+      </c>
+      <c r="I78">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>16</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79">
+        <v>15</v>
+      </c>
+      <c r="H79">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I79">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>17</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80">
+        <v>16</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>18</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81">
+        <v>17</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>19</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82">
+        <v>18</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83">
+        <v>19</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>20</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0.996</v>
       </c>
     </row>
   </sheetData>
